--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="810" yWindow="90" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,15 +397,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="D1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>윤한빈#7440</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -1,40 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonh\Documents\GitHub\discord_2-13_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E152F0-B711-4F78-B051-DEEDCAC8FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,28 +342,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="D1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>윤한빈#7440</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonh\Documents\GitHub\discord_2-13_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E152F0-B711-4F78-B051-DEEDCAC8FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCA30D-4FE7-4930-B448-4D17CB096184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -1,49 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonh\Documents\GitHub\discord_2-13_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCA30D-4FE7-4930-B448-4D17CB096184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,15 +392,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>582562854490734593</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>윤한빈#7440</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2021-08-29 15:13:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,17 +408,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>761586352402858026</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ㅅㅇ#2979</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2021-08-29 18:44:43</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>윤한빈#7440</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>495872001257373696</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>meteor#6974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2021-08-29 18:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>582562854490734593</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>윤한빈#7440</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>2021-08-29 15:13:42</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2021-08-29 20:39:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>606646754737258528</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>태양#4772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021-08-29 20:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>762476413030629386</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Smoogle_스무글#5416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-08-29 20:39:24</t>
         </is>
       </c>
     </row>

--- a/memberlist.xlsx
+++ b/memberlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6795" yWindow="3480" windowWidth="14025" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1200" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -399,8 +399,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -421,11 +421,6 @@
           <t>2021-08-29 18:44:43</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>윤한빈#7440</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -447,56 +442,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>582562854490734593</t>
+          <t>606646754737258528</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>윤한빈#7440</t>
+          <t>태양#4772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-08-29 20:39:04</t>
+          <t>2021-08-29 20:39:14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>606646754737258528</t>
+          <t>762476413030629386</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>태양#4772</t>
+          <t>Smoogle_스무글#5416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-08-29 20:39:14</t>
+          <t>2021-08-29 20:39:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>762476413030629386</t>
+          <t>582562854490734593</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoogle_스무글#5416</t>
+          <t>윤한빈#7440</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-08-29 20:39:24</t>
-        </is>
+          <t>2021-09-01 10:32:45</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>